--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Mif-Cd74.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Mif-Cd74.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.0505384322431</v>
+        <v>21.29761233333333</v>
       </c>
       <c r="H2">
-        <v>19.0505384322431</v>
+        <v>63.892837</v>
       </c>
       <c r="I2">
-        <v>0.07508827752958185</v>
+        <v>0.07945479053849795</v>
       </c>
       <c r="J2">
-        <v>0.07508827752958185</v>
+        <v>0.07945479053849797</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.027430137442851</v>
+        <v>9.519744999999999</v>
       </c>
       <c r="N2">
-        <v>8.027430137442851</v>
+        <v>28.559235</v>
       </c>
       <c r="O2">
-        <v>0.005499949316587758</v>
+        <v>0.006175297786916959</v>
       </c>
       <c r="P2">
-        <v>0.005499949316587758</v>
+        <v>0.00617529778691696</v>
       </c>
       <c r="Q2">
-        <v>152.9268663455015</v>
+        <v>202.7478385221883</v>
       </c>
       <c r="R2">
-        <v>152.9268663455015</v>
+        <v>1824.730546699695</v>
       </c>
       <c r="S2">
-        <v>0.0004129817206825756</v>
+        <v>0.0004906569921723369</v>
       </c>
       <c r="T2">
-        <v>0.0004129817206825756</v>
+        <v>0.0004906569921723371</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.0505384322431</v>
+        <v>21.29761233333333</v>
       </c>
       <c r="H3">
-        <v>19.0505384322431</v>
+        <v>63.892837</v>
       </c>
       <c r="I3">
-        <v>0.07508827752958185</v>
+        <v>0.07945479053849795</v>
       </c>
       <c r="J3">
-        <v>0.07508827752958185</v>
+        <v>0.07945479053849797</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.92822726581842</v>
+        <v>3.308000333333334</v>
       </c>
       <c r="N3">
-        <v>2.92822726581842</v>
+        <v>9.924001000000001</v>
       </c>
       <c r="O3">
-        <v>0.002006258699696633</v>
+        <v>0.002145843941991503</v>
       </c>
       <c r="P3">
-        <v>0.002006258699696633</v>
+        <v>0.002145843941991503</v>
       </c>
       <c r="Q3">
-        <v>55.78430606581594</v>
+        <v>70.45250869787078</v>
       </c>
       <c r="R3">
-        <v>55.78430606581594</v>
+        <v>634.072578280837</v>
       </c>
       <c r="S3">
-        <v>0.0001506465100389588</v>
+        <v>0.0001704975809392396</v>
       </c>
       <c r="T3">
-        <v>0.0001506465100389588</v>
+        <v>0.0001704975809392397</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.0505384322431</v>
+        <v>21.29761233333333</v>
       </c>
       <c r="H4">
-        <v>19.0505384322431</v>
+        <v>63.892837</v>
       </c>
       <c r="I4">
-        <v>0.07508827752958185</v>
+        <v>0.07945479053849795</v>
       </c>
       <c r="J4">
-        <v>0.07508827752958185</v>
+        <v>0.07945479053849797</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>528.707883298782</v>
+        <v>561.5112203333334</v>
       </c>
       <c r="N4">
-        <v>528.707883298782</v>
+        <v>1684.533661</v>
       </c>
       <c r="O4">
-        <v>0.3622412791685785</v>
+        <v>0.3642428443465109</v>
       </c>
       <c r="P4">
-        <v>0.3622412791685785</v>
+        <v>0.3642428443465109</v>
       </c>
       <c r="Q4">
-        <v>10072.16985021335</v>
+        <v>11958.84829147625</v>
       </c>
       <c r="R4">
-        <v>10072.16985021335</v>
+        <v>107629.6346232863</v>
       </c>
       <c r="S4">
-        <v>0.02720007370288096</v>
+        <v>0.02894083890269874</v>
       </c>
       <c r="T4">
-        <v>0.02720007370288096</v>
+        <v>0.02894083890269874</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.0505384322431</v>
+        <v>21.29761233333333</v>
       </c>
       <c r="H5">
-        <v>19.0505384322431</v>
+        <v>63.892837</v>
       </c>
       <c r="I5">
-        <v>0.07508827752958185</v>
+        <v>0.07945479053849795</v>
       </c>
       <c r="J5">
-        <v>0.07508827752958185</v>
+        <v>0.07945479053849797</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>919.163699966962</v>
+        <v>965.8796183333334</v>
       </c>
       <c r="N5">
-        <v>919.163699966962</v>
+        <v>2897.638855</v>
       </c>
       <c r="O5">
-        <v>0.6297599202870121</v>
+        <v>0.6265497940881853</v>
       </c>
       <c r="P5">
-        <v>0.6297599202870121</v>
+        <v>0.6265497940881853</v>
       </c>
       <c r="Q5">
-        <v>17510.56339174338</v>
+        <v>20570.9296719313</v>
       </c>
       <c r="R5">
-        <v>17510.56339174338</v>
+        <v>185138.3670473816</v>
       </c>
       <c r="S5">
-        <v>0.04728758767151851</v>
+        <v>0.04978238265121579</v>
       </c>
       <c r="T5">
-        <v>0.04728758767151851</v>
+        <v>0.0497823826512158</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.0505384322431</v>
+        <v>21.29761233333333</v>
       </c>
       <c r="H6">
-        <v>19.0505384322431</v>
+        <v>63.892837</v>
       </c>
       <c r="I6">
-        <v>0.07508827752958185</v>
+        <v>0.07945479053849795</v>
       </c>
       <c r="J6">
-        <v>0.07508827752958185</v>
+        <v>0.07945479053849797</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.718961553668146</v>
+        <v>1.366183</v>
       </c>
       <c r="N6">
-        <v>0.718961553668146</v>
+        <v>4.098549</v>
       </c>
       <c r="O6">
-        <v>0.0004925925281250252</v>
+        <v>0.0008862198363951529</v>
       </c>
       <c r="P6">
-        <v>0.0004925925281250252</v>
+        <v>0.0008862198363951528</v>
       </c>
       <c r="Q6">
-        <v>13.69660470946023</v>
+        <v>29.09643591039034</v>
       </c>
       <c r="R6">
-        <v>13.69660470946023</v>
+        <v>261.867923193513</v>
       </c>
       <c r="S6">
-        <v>3.698792446085024E-05</v>
+        <v>7.04144114718388E-05</v>
       </c>
       <c r="T6">
-        <v>3.698792446085024E-05</v>
+        <v>7.04144114718388E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>71.56419225180809</v>
+        <v>72.54156500000001</v>
       </c>
       <c r="H7">
-        <v>71.56419225180809</v>
+        <v>217.624695</v>
       </c>
       <c r="I7">
-        <v>0.2820724436790314</v>
+        <v>0.270630095158077</v>
       </c>
       <c r="J7">
-        <v>0.2820724436790314</v>
+        <v>0.2706300951580771</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.027430137442851</v>
+        <v>9.519744999999999</v>
       </c>
       <c r="N7">
-        <v>8.027430137442851</v>
+        <v>28.559235</v>
       </c>
       <c r="O7">
-        <v>0.005499949316587758</v>
+        <v>0.006175297786916959</v>
       </c>
       <c r="P7">
-        <v>0.005499949316587758</v>
+        <v>0.00617529778691696</v>
       </c>
       <c r="Q7">
-        <v>574.4765536439185</v>
+        <v>690.577200700925</v>
       </c>
       <c r="R7">
-        <v>574.4765536439185</v>
+        <v>6215.194806308325</v>
       </c>
       <c r="S7">
-        <v>0.001551384143840728</v>
+        <v>0.001671221427702799</v>
       </c>
       <c r="T7">
-        <v>0.001551384143840728</v>
+        <v>0.0016712214277028</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>71.56419225180809</v>
+        <v>72.54156500000001</v>
       </c>
       <c r="H8">
-        <v>71.56419225180809</v>
+        <v>217.624695</v>
       </c>
       <c r="I8">
-        <v>0.2820724436790314</v>
+        <v>0.270630095158077</v>
       </c>
       <c r="J8">
-        <v>0.2820724436790314</v>
+        <v>0.2706300951580771</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.92822726581842</v>
+        <v>3.308000333333334</v>
       </c>
       <c r="N8">
-        <v>2.92822726581842</v>
+        <v>9.924001000000001</v>
       </c>
       <c r="O8">
-        <v>0.002006258699696633</v>
+        <v>0.002145843941991503</v>
       </c>
       <c r="P8">
-        <v>0.002006258699696633</v>
+        <v>0.002145843941991503</v>
       </c>
       <c r="Q8">
-        <v>209.5562190080158</v>
+        <v>239.9675212005217</v>
       </c>
       <c r="R8">
-        <v>209.5562190080158</v>
+        <v>2159.707690804696</v>
       </c>
       <c r="S8">
-        <v>0.0005659102940757454</v>
+        <v>0.0005807299502155436</v>
       </c>
       <c r="T8">
-        <v>0.0005659102940757454</v>
+        <v>0.0005807299502155437</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>71.56419225180809</v>
+        <v>72.54156500000001</v>
       </c>
       <c r="H9">
-        <v>71.56419225180809</v>
+        <v>217.624695</v>
       </c>
       <c r="I9">
-        <v>0.2820724436790314</v>
+        <v>0.270630095158077</v>
       </c>
       <c r="J9">
-        <v>0.2820724436790314</v>
+        <v>0.2706300951580771</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>528.707883298782</v>
+        <v>561.5112203333334</v>
       </c>
       <c r="N9">
-        <v>528.707883298782</v>
+        <v>1684.533661</v>
       </c>
       <c r="O9">
-        <v>0.3622412791685785</v>
+        <v>0.3642428443465109</v>
       </c>
       <c r="P9">
-        <v>0.3622412791685785</v>
+        <v>0.3642428443465109</v>
       </c>
       <c r="Q9">
-        <v>37836.55260544056</v>
+        <v>40732.90268803983</v>
       </c>
       <c r="R9">
-        <v>37836.55260544056</v>
+        <v>366596.1241923585</v>
       </c>
       <c r="S9">
-        <v>0.1021782828164992</v>
+        <v>0.09857507562614488</v>
       </c>
       <c r="T9">
-        <v>0.1021782828164992</v>
+        <v>0.0985750756261449</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>71.56419225180809</v>
+        <v>72.54156500000001</v>
       </c>
       <c r="H10">
-        <v>71.56419225180809</v>
+        <v>217.624695</v>
       </c>
       <c r="I10">
-        <v>0.2820724436790314</v>
+        <v>0.270630095158077</v>
       </c>
       <c r="J10">
-        <v>0.2820724436790314</v>
+        <v>0.2706300951580771</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>919.163699966962</v>
+        <v>965.8796183333334</v>
       </c>
       <c r="N10">
-        <v>919.163699966962</v>
+        <v>2897.638855</v>
       </c>
       <c r="O10">
-        <v>0.6297599202870121</v>
+        <v>0.6265497940881853</v>
       </c>
       <c r="P10">
-        <v>0.6297599202870121</v>
+        <v>0.6265497940881853</v>
       </c>
       <c r="Q10">
-        <v>65779.20773531892</v>
+        <v>70066.41911550271</v>
       </c>
       <c r="R10">
-        <v>65779.20773531892</v>
+        <v>630597.7720395244</v>
       </c>
       <c r="S10">
-        <v>0.1776379196464695</v>
+        <v>0.1695632303953591</v>
       </c>
       <c r="T10">
-        <v>0.1776379196464695</v>
+        <v>0.1695632303953592</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>71.56419225180809</v>
+        <v>72.54156500000001</v>
       </c>
       <c r="H11">
-        <v>71.56419225180809</v>
+        <v>217.624695</v>
       </c>
       <c r="I11">
-        <v>0.2820724436790314</v>
+        <v>0.270630095158077</v>
       </c>
       <c r="J11">
-        <v>0.2820724436790314</v>
+        <v>0.2706300951580771</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.718961553668146</v>
+        <v>1.366183</v>
       </c>
       <c r="N11">
-        <v>0.718961553668146</v>
+        <v>4.098549</v>
       </c>
       <c r="O11">
-        <v>0.0004925925281250252</v>
+        <v>0.0008862198363951529</v>
       </c>
       <c r="P11">
-        <v>0.0004925925281250252</v>
+        <v>0.0008862198363951528</v>
       </c>
       <c r="Q11">
-        <v>51.45190284836584</v>
+        <v>99.10505289639502</v>
       </c>
       <c r="R11">
-        <v>51.45190284836584</v>
+        <v>891.9454760675552</v>
       </c>
       <c r="S11">
-        <v>0.0001389467781462579</v>
+        <v>0.0002398377586545957</v>
       </c>
       <c r="T11">
-        <v>0.0001389467781462579</v>
+        <v>0.0002398377586545957</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>70.8952846780667</v>
+        <v>71.11627966666667</v>
       </c>
       <c r="H12">
-        <v>70.8952846780667</v>
+        <v>213.348839</v>
       </c>
       <c r="I12">
-        <v>0.2794359241015206</v>
+        <v>0.2653127973387177</v>
       </c>
       <c r="J12">
-        <v>0.2794359241015206</v>
+        <v>0.2653127973387177</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.027430137442851</v>
+        <v>9.519744999999999</v>
       </c>
       <c r="N12">
-        <v>8.027430137442851</v>
+        <v>28.559235</v>
       </c>
       <c r="O12">
-        <v>0.005499949316587758</v>
+        <v>0.006175297786916959</v>
       </c>
       <c r="P12">
-        <v>0.005499949316587758</v>
+        <v>0.00617529778691696</v>
       </c>
       <c r="Q12">
-        <v>569.106944827303</v>
+        <v>677.0088477753516</v>
       </c>
       <c r="R12">
-        <v>569.106944827303</v>
+        <v>6093.079629978164</v>
       </c>
       <c r="S12">
-        <v>0.001536883419792227</v>
+        <v>0.001638385530246531</v>
       </c>
       <c r="T12">
-        <v>0.001536883419792227</v>
+        <v>0.001638385530246531</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>70.8952846780667</v>
+        <v>71.11627966666667</v>
       </c>
       <c r="H13">
-        <v>70.8952846780667</v>
+        <v>213.348839</v>
       </c>
       <c r="I13">
-        <v>0.2794359241015206</v>
+        <v>0.2653127973387177</v>
       </c>
       <c r="J13">
-        <v>0.2794359241015206</v>
+        <v>0.2653127973387177</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.92822726581842</v>
+        <v>3.308000333333334</v>
       </c>
       <c r="N13">
-        <v>2.92822726581842</v>
+        <v>9.924001000000001</v>
       </c>
       <c r="O13">
-        <v>0.002006258699696633</v>
+        <v>0.002145843941991503</v>
       </c>
       <c r="P13">
-        <v>0.002006258699696633</v>
+        <v>0.002145843941991503</v>
       </c>
       <c r="Q13">
-        <v>207.5975056122738</v>
+        <v>235.2526768427599</v>
       </c>
       <c r="R13">
-        <v>207.5975056122738</v>
+        <v>2117.274091584839</v>
       </c>
       <c r="S13">
-        <v>0.0005606207537364437</v>
+        <v>0.0005693198589021068</v>
       </c>
       <c r="T13">
-        <v>0.0005606207537364437</v>
+        <v>0.0005693198589021068</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>70.8952846780667</v>
+        <v>71.11627966666667</v>
       </c>
       <c r="H14">
-        <v>70.8952846780667</v>
+        <v>213.348839</v>
       </c>
       <c r="I14">
-        <v>0.2794359241015206</v>
+        <v>0.2653127973387177</v>
       </c>
       <c r="J14">
-        <v>0.2794359241015206</v>
+        <v>0.2653127973387177</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>528.707883298782</v>
+        <v>561.5112203333334</v>
       </c>
       <c r="N14">
-        <v>528.707883298782</v>
+        <v>1684.533661</v>
       </c>
       <c r="O14">
-        <v>0.3622412791685785</v>
+        <v>0.3642428443465109</v>
       </c>
       <c r="P14">
-        <v>0.3622412791685785</v>
+        <v>0.3642428443465109</v>
       </c>
       <c r="Q14">
-        <v>37482.89589800522</v>
+        <v>39932.58898119663</v>
       </c>
       <c r="R14">
-        <v>37482.89589800522</v>
+        <v>359393.3008307696</v>
       </c>
       <c r="S14">
-        <v>0.1012232265921886</v>
+        <v>0.09663828794418396</v>
       </c>
       <c r="T14">
-        <v>0.1012232265921886</v>
+        <v>0.09663828794418394</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>70.8952846780667</v>
+        <v>71.11627966666667</v>
       </c>
       <c r="H15">
-        <v>70.8952846780667</v>
+        <v>213.348839</v>
       </c>
       <c r="I15">
-        <v>0.2794359241015206</v>
+        <v>0.2653127973387177</v>
       </c>
       <c r="J15">
-        <v>0.2794359241015206</v>
+        <v>0.2653127973387177</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>919.163699966962</v>
+        <v>965.8796183333334</v>
       </c>
       <c r="N15">
-        <v>919.163699966962</v>
+        <v>2897.638855</v>
       </c>
       <c r="O15">
-        <v>0.6297599202870121</v>
+        <v>0.6265497940881853</v>
       </c>
       <c r="P15">
-        <v>0.6297599202870121</v>
+        <v>0.6265497940881853</v>
       </c>
       <c r="Q15">
-        <v>65164.37217490286</v>
+        <v>68689.7650617266</v>
       </c>
       <c r="R15">
-        <v>65164.37217490286</v>
+        <v>618207.8855555394</v>
       </c>
       <c r="S15">
-        <v>0.1759775452875012</v>
+        <v>0.166231678541534</v>
       </c>
       <c r="T15">
-        <v>0.1759775452875012</v>
+        <v>0.166231678541534</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>70.8952846780667</v>
+        <v>71.11627966666667</v>
       </c>
       <c r="H16">
-        <v>70.8952846780667</v>
+        <v>213.348839</v>
       </c>
       <c r="I16">
-        <v>0.2794359241015206</v>
+        <v>0.2653127973387177</v>
       </c>
       <c r="J16">
-        <v>0.2794359241015206</v>
+        <v>0.2653127973387177</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.718961553668146</v>
+        <v>1.366183</v>
       </c>
       <c r="N16">
-        <v>0.718961553668146</v>
+        <v>4.098549</v>
       </c>
       <c r="O16">
-        <v>0.0004925925281250252</v>
+        <v>0.0008862198363951529</v>
       </c>
       <c r="P16">
-        <v>0.0004925925281250252</v>
+        <v>0.0008862198363951528</v>
       </c>
       <c r="Q16">
-        <v>50.97098401988834</v>
+        <v>97.15785230384569</v>
       </c>
       <c r="R16">
-        <v>50.97098401988834</v>
+        <v>874.420670734611</v>
       </c>
       <c r="S16">
-        <v>0.0001376480483021207</v>
+        <v>0.0002351254638510588</v>
       </c>
       <c r="T16">
-        <v>0.0001376480483021207</v>
+        <v>0.0002351254638510588</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>45.2020737078026</v>
+        <v>46.85139066666667</v>
       </c>
       <c r="H17">
-        <v>45.2020737078026</v>
+        <v>140.554172</v>
       </c>
       <c r="I17">
-        <v>0.1781653504207258</v>
+        <v>0.1747880172478804</v>
       </c>
       <c r="J17">
-        <v>0.1781653504207258</v>
+        <v>0.1747880172478805</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.027430137442851</v>
+        <v>9.519744999999999</v>
       </c>
       <c r="N17">
-        <v>8.027430137442851</v>
+        <v>28.559235</v>
       </c>
       <c r="O17">
-        <v>0.005499949316587758</v>
+        <v>0.006175297786916959</v>
       </c>
       <c r="P17">
-        <v>0.005499949316587758</v>
+        <v>0.00617529778691696</v>
       </c>
       <c r="Q17">
-        <v>362.8564887569277</v>
+        <v>446.0132920420466</v>
       </c>
       <c r="R17">
-        <v>362.8564887569277</v>
+        <v>4014.119628378419</v>
       </c>
       <c r="S17">
-        <v>0.0009799003972860894</v>
+        <v>0.001079368056090439</v>
       </c>
       <c r="T17">
-        <v>0.0009799003972860894</v>
+        <v>0.00107936805609044</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>45.2020737078026</v>
+        <v>46.85139066666667</v>
       </c>
       <c r="H18">
-        <v>45.2020737078026</v>
+        <v>140.554172</v>
       </c>
       <c r="I18">
-        <v>0.1781653504207258</v>
+        <v>0.1747880172478804</v>
       </c>
       <c r="J18">
-        <v>0.1781653504207258</v>
+        <v>0.1747880172478805</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.92822726581842</v>
+        <v>3.308000333333334</v>
       </c>
       <c r="N18">
-        <v>2.92822726581842</v>
+        <v>9.924001000000001</v>
       </c>
       <c r="O18">
-        <v>0.002006258699696633</v>
+        <v>0.002145843941991503</v>
       </c>
       <c r="P18">
-        <v>0.002006258699696633</v>
+        <v>0.002145843941991503</v>
       </c>
       <c r="Q18">
-        <v>132.3619447027215</v>
+        <v>154.9844159424636</v>
       </c>
       <c r="R18">
-        <v>132.3619447027215</v>
+        <v>1394.859743482172</v>
       </c>
       <c r="S18">
-        <v>0.0003574457842660803</v>
+        <v>0.0003750678079440706</v>
       </c>
       <c r="T18">
-        <v>0.0003574457842660803</v>
+        <v>0.0003750678079440706</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>45.2020737078026</v>
+        <v>46.85139066666667</v>
       </c>
       <c r="H19">
-        <v>45.2020737078026</v>
+        <v>140.554172</v>
       </c>
       <c r="I19">
-        <v>0.1781653504207258</v>
+        <v>0.1747880172478804</v>
       </c>
       <c r="J19">
-        <v>0.1781653504207258</v>
+        <v>0.1747880172478805</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>528.707883298782</v>
+        <v>561.5112203333334</v>
       </c>
       <c r="N19">
-        <v>528.707883298782</v>
+        <v>1684.533661</v>
       </c>
       <c r="O19">
-        <v>0.3622412791685785</v>
+        <v>0.3642428443465109</v>
       </c>
       <c r="P19">
-        <v>0.3622412791685785</v>
+        <v>0.3642428443465109</v>
       </c>
       <c r="Q19">
-        <v>23898.69271076784</v>
+        <v>26307.58154755375</v>
       </c>
       <c r="R19">
-        <v>23898.69271076784</v>
+        <v>236768.2339279837</v>
       </c>
       <c r="S19">
-        <v>0.06453884443992175</v>
+        <v>0.06366528456005498</v>
       </c>
       <c r="T19">
-        <v>0.06453884443992175</v>
+        <v>0.06366528456005498</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>45.2020737078026</v>
+        <v>46.85139066666667</v>
       </c>
       <c r="H20">
-        <v>45.2020737078026</v>
+        <v>140.554172</v>
       </c>
       <c r="I20">
-        <v>0.1781653504207258</v>
+        <v>0.1747880172478804</v>
       </c>
       <c r="J20">
-        <v>0.1781653504207258</v>
+        <v>0.1747880172478805</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>919.163699966962</v>
+        <v>965.8796183333334</v>
       </c>
       <c r="N20">
-        <v>919.163699966962</v>
+        <v>2897.638855</v>
       </c>
       <c r="O20">
-        <v>0.6297599202870121</v>
+        <v>0.6265497940881853</v>
       </c>
       <c r="P20">
-        <v>0.6297599202870121</v>
+        <v>0.6265497940881853</v>
       </c>
       <c r="Q20">
-        <v>41548.10531544316</v>
+        <v>45252.8033355059</v>
       </c>
       <c r="R20">
-        <v>41548.10531544316</v>
+        <v>407275.230019553</v>
       </c>
       <c r="S20">
-        <v>0.1122013968788639</v>
+        <v>0.1095133962157417</v>
       </c>
       <c r="T20">
-        <v>0.1122013968788639</v>
+        <v>0.1095133962157417</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>45.2020737078026</v>
+        <v>46.85139066666667</v>
       </c>
       <c r="H21">
-        <v>45.2020737078026</v>
+        <v>140.554172</v>
       </c>
       <c r="I21">
-        <v>0.1781653504207258</v>
+        <v>0.1747880172478804</v>
       </c>
       <c r="J21">
-        <v>0.1781653504207258</v>
+        <v>0.1747880172478805</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.718961553668146</v>
+        <v>1.366183</v>
       </c>
       <c r="N21">
-        <v>0.718961553668146</v>
+        <v>4.098549</v>
       </c>
       <c r="O21">
-        <v>0.0004925925281250252</v>
+        <v>0.0008862198363951529</v>
       </c>
       <c r="P21">
-        <v>0.0004925925281250252</v>
+        <v>0.0008862198363951528</v>
       </c>
       <c r="Q21">
-        <v>32.49855314198381</v>
+        <v>64.00757345515868</v>
       </c>
       <c r="R21">
-        <v>32.49855314198381</v>
+        <v>576.068161096428</v>
       </c>
       <c r="S21">
-        <v>8.776292038802634E-05</v>
+        <v>0.0001549006080492498</v>
       </c>
       <c r="T21">
-        <v>8.776292038802634E-05</v>
+        <v>0.0001549006080492498</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>46.996466499728</v>
+        <v>56.240078</v>
       </c>
       <c r="H22">
-        <v>46.996466499728</v>
+        <v>168.720234</v>
       </c>
       <c r="I22">
-        <v>0.1852380042691404</v>
+        <v>0.2098142997168268</v>
       </c>
       <c r="J22">
-        <v>0.1852380042691404</v>
+        <v>0.2098142997168268</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.027430137442851</v>
+        <v>9.519744999999999</v>
       </c>
       <c r="N22">
-        <v>8.027430137442851</v>
+        <v>28.559235</v>
       </c>
       <c r="O22">
-        <v>0.005499949316587758</v>
+        <v>0.006175297786916959</v>
       </c>
       <c r="P22">
-        <v>0.005499949316587758</v>
+        <v>0.00617529778691696</v>
       </c>
       <c r="Q22">
-        <v>377.2608515332399</v>
+        <v>535.39120134011</v>
       </c>
       <c r="R22">
-        <v>377.2608515332399</v>
+        <v>4818.52081206099</v>
       </c>
       <c r="S22">
-        <v>0.001018799634986139</v>
+        <v>0.001295665780704852</v>
       </c>
       <c r="T22">
-        <v>0.001018799634986139</v>
+        <v>0.001295665780704852</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>46.996466499728</v>
+        <v>56.240078</v>
       </c>
       <c r="H23">
-        <v>46.996466499728</v>
+        <v>168.720234</v>
       </c>
       <c r="I23">
-        <v>0.1852380042691404</v>
+        <v>0.2098142997168268</v>
       </c>
       <c r="J23">
-        <v>0.1852380042691404</v>
+        <v>0.2098142997168268</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.92822726581842</v>
+        <v>3.308000333333334</v>
       </c>
       <c r="N23">
-        <v>2.92822726581842</v>
+        <v>9.924001000000001</v>
       </c>
       <c r="O23">
-        <v>0.002006258699696633</v>
+        <v>0.002145843941991503</v>
       </c>
       <c r="P23">
-        <v>0.002006258699696633</v>
+        <v>0.002145843941991503</v>
       </c>
       <c r="Q23">
-        <v>137.6163346016255</v>
+        <v>186.0421967706927</v>
       </c>
       <c r="R23">
-        <v>137.6163346016255</v>
+        <v>1674.379770936234</v>
       </c>
       <c r="S23">
-        <v>0.000371635357579405</v>
+        <v>0.0004502287439905424</v>
       </c>
       <c r="T23">
-        <v>0.000371635357579405</v>
+        <v>0.0004502287439905424</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>46.996466499728</v>
+        <v>56.240078</v>
       </c>
       <c r="H24">
-        <v>46.996466499728</v>
+        <v>168.720234</v>
       </c>
       <c r="I24">
-        <v>0.1852380042691404</v>
+        <v>0.2098142997168268</v>
       </c>
       <c r="J24">
-        <v>0.1852380042691404</v>
+        <v>0.2098142997168268</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>528.707883298782</v>
+        <v>561.5112203333334</v>
       </c>
       <c r="N24">
-        <v>528.707883298782</v>
+        <v>1684.533661</v>
       </c>
       <c r="O24">
-        <v>0.3622412791685785</v>
+        <v>0.3642428443465109</v>
       </c>
       <c r="P24">
-        <v>0.3622412791685785</v>
+        <v>0.3642428443465109</v>
       </c>
       <c r="Q24">
-        <v>24847.40232559331</v>
+        <v>31579.43482942186</v>
       </c>
       <c r="R24">
-        <v>24847.40232559331</v>
+        <v>284214.9134647967</v>
       </c>
       <c r="S24">
-        <v>0.06710085161708804</v>
+        <v>0.07642335731342834</v>
       </c>
       <c r="T24">
-        <v>0.06710085161708804</v>
+        <v>0.07642335731342834</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>46.996466499728</v>
+        <v>56.240078</v>
       </c>
       <c r="H25">
-        <v>46.996466499728</v>
+        <v>168.720234</v>
       </c>
       <c r="I25">
-        <v>0.1852380042691404</v>
+        <v>0.2098142997168268</v>
       </c>
       <c r="J25">
-        <v>0.1852380042691404</v>
+        <v>0.2098142997168268</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>919.163699966962</v>
+        <v>965.8796183333334</v>
       </c>
       <c r="N25">
-        <v>919.163699966962</v>
+        <v>2897.638855</v>
       </c>
       <c r="O25">
-        <v>0.6297599202870121</v>
+        <v>0.6265497940881853</v>
       </c>
       <c r="P25">
-        <v>0.6297599202870121</v>
+        <v>0.6265497940881853</v>
       </c>
       <c r="Q25">
-        <v>43197.44603326337</v>
+        <v>54321.1450736769</v>
       </c>
       <c r="R25">
-        <v>43197.44603326337</v>
+        <v>488890.3056630921</v>
       </c>
       <c r="S25">
-        <v>0.1166554708026591</v>
+        <v>0.1314591062843346</v>
       </c>
       <c r="T25">
-        <v>0.1166554708026591</v>
+        <v>0.1314591062843347</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>46.996466499728</v>
+        <v>56.240078</v>
       </c>
       <c r="H26">
-        <v>46.996466499728</v>
+        <v>168.720234</v>
       </c>
       <c r="I26">
-        <v>0.1852380042691404</v>
+        <v>0.2098142997168268</v>
       </c>
       <c r="J26">
-        <v>0.1852380042691404</v>
+        <v>0.2098142997168268</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.718961553668146</v>
+        <v>1.366183</v>
       </c>
       <c r="N26">
-        <v>0.718961553668146</v>
+        <v>4.098549</v>
       </c>
       <c r="O26">
-        <v>0.0004925925281250252</v>
+        <v>0.0008862198363951529</v>
       </c>
       <c r="P26">
-        <v>0.0004925925281250252</v>
+        <v>0.0008862198363951528</v>
       </c>
       <c r="Q26">
-        <v>33.78865257155741</v>
+        <v>76.83423848227402</v>
       </c>
       <c r="R26">
-        <v>33.78865257155741</v>
+        <v>691.5081463404661</v>
       </c>
       <c r="S26">
-        <v>9.12468568277701E-05</v>
+        <v>0.0001859415943684098</v>
       </c>
       <c r="T26">
-        <v>9.12468568277701E-05</v>
+        <v>0.0001859415943684098</v>
       </c>
     </row>
   </sheetData>
